--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH PS/4.0/NGH_PS_accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH PS/4.0/NGH_PS_accreditamento-checklist_V7.1.1.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">TestCases!$A$9:$T$198</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_9CC1D15D_1ABE_40F2_B1AD_1B9CBFDB5300_.wvu.FilterData">TestCases!$A$9:$Z$198</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_8B98711D_9942_40EE_8F09_5AB15FA7FBFB_.wvu.FilterData">TestCases!$A$9:$Z$198</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_AC0FF1EF_256E_43CD_8AE5_0746159A791D_.wvu.FilterData">TestCases!$A$9:$Z$198</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_73F916A6_C95B_497B_A121_6749EE0D45C6_.wvu.FilterData">TestCases!$A$9:$Z$198</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8B98711D-9942-40EE-8F09-5AB15FA7FBFB}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9CC1D15D-1ABE-40F2-B1AD-1B9CBFDB5300}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AC0FF1EF-256E-43CD-8AE5-0746159A791D}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{73F916A6-C95B-497B-A121-6749EE0D45C6}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -480,13 +480,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-04-14T10:46:09Z</t>
-  </si>
-  <si>
-    <t>1a2a3eb39b5bb5db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.b83904a6f9b4977accd1cf35d92496f16b501c2a07729fd775a9752bbe4fed16.2912ec7481^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-18T08:13:00Z</t>
+  </si>
+  <si>
+    <t>b5c815585fa00d4e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.b83904a6f9b4977accd1cf35d92496f16b501c2a07729fd775a9752bbe4fed16.f230500928^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -6486,7 +6486,7 @@
         <v>95</v>
       </c>
       <c r="F31" s="29">
-        <v>45030.0</v>
+        <v>45034.0</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>96</v>
@@ -26249,7 +26249,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{9CC1D15D-1ABE-40F2-B1AD-1B9CBFDB5300}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{73F916A6-C95B-497B-A121-6749EE0D45C6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$9:$Z$198">
         <filterColumn colId="2">
           <filters>
@@ -26263,7 +26263,7 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{8B98711D-9942-40EE-8F09-5AB15FA7FBFB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AC0FF1EF-256E-43CD-8AE5-0746159A791D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$9:$Z$198">
         <filterColumn colId="2">
           <filters>
